--- a/configs/BattleInitialConfig.xlsx
+++ b/configs/BattleInitialConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SongOfBoat\B.O.A.T\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB0B3A9-63B2-4BFA-84CC-34465D7DED40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFE068B-F3D6-48FA-AC6F-33F3E1C7C5BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25308" yWindow="84" windowWidth="18948" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27984" yWindow="636" windowWidth="18948" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
